--- a/datastatic/datasets/online/D_PISA_Socio_Economic_Factors_on_Education_Results_2014.xlsx
+++ b/datastatic/datasets/online/D_PISA_Socio_Economic_Factors_on_Education_Results_2014.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
-  <si>
-    <t>sponsor</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t>original_title</t>
   </si>
@@ -25,7 +22,7 @@
     <t>original_indicator_code</t>
   </si>
   <si>
-    <t>title</t>
+    <t>title_German</t>
   </si>
   <si>
     <t>Einfluss sozioökonomischer Faktoren auf Schulleistungen</t>
@@ -52,6 +49,18 @@
     <t>long_indicator_description</t>
   </si>
   <si>
+    <t>long_indicator_description$en$text</t>
+  </si>
+  <si>
+    <t>This indicator, reported in the Social Inclusion Monitor Europe Index Report based on data from OECD PISA and Bertelsmann Stiftung, tackles how a society can be deemed socially just. It depends significantly – next to the issue of poverty prevention – on the distribution and organization of educational opportunities. The indicator monitors how one student’s social background influences his or her educational performance. Sweden, Denmark, Lithuania, Estonia, Croatia and Finland are the top-ranked EU countries in this dimension. At the same time, Finland and Estonia attained the best results in the last PISA survey of learning achievement levels. This demonstrates that a high degree of social justice and a well-performing school and training system don’t need to be incompatible goals.</t>
+  </si>
+  <si>
+    <t>long_indicator_description$en$baseunit</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
     <t>long_indicator_description$de$text</t>
   </si>
   <si>
@@ -64,31 +73,37 @@
     <t>Punkte</t>
   </si>
   <si>
-    <t>long_indicator_description$en$text</t>
-  </si>
-  <si>
-    <t>This indicator, reported in the Social Inclusion Monitor Europe Index Report based on data from OECD PISA and Bertelsmann Stiftung, tackles how a society can be deemed socially just. It depends significantly – in addition to the issue of poverty prevention – on the distribution and organization of educational opportunities. The indicator monitors how one student’s social background influences his or her educational performance. Sweden, Denmark, Lithuania, Estonia, Croatia and Finland are the top-ranked EU countries in this dimension. At the same time, Finland and Estonia attained the best results in the last PISA survey of learning achievement levels. This demonstrates that a high degree of social justice and a well-performing school and training system don’t need to be incompatible goals.</t>
-  </si>
-  <si>
-    <t>long_indicator_description$en$baseunit</t>
-  </si>
-  <si>
     <t>target</t>
   </si>
   <si>
-    <t>target$explanation_of_target</t>
+    <t>target$type</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>target$value</t>
+  </si>
+  <si>
+    <t>target$rating</t>
+  </si>
+  <si>
+    <t>0,2.5,5,7.5</t>
+  </si>
+  <si>
+    <t>target$explanation$de</t>
   </si>
   <si>
     <t>Die ermittelten Scores wurden standardisiert, weswegen der Optimalwert von dem wir ausgehen null ist.</t>
   </si>
   <si>
-    <t>target$rating</t>
-  </si>
-  <si>
-    <t>2,4,6,8</t>
-  </si>
-  <si>
-    <t>target$baseunit</t>
+    <t>target$explanation$en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The scores are standardised, so that we aim for an optimal value of 0. </t>
+  </si>
+  <si>
+    <t>target$target_reference</t>
   </si>
   <si>
     <t>target$tags</t>
@@ -97,66 +112,51 @@
     <t>social</t>
   </si>
   <si>
+    <t>target$target</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
     <t>target$ministerial_responsibility</t>
   </si>
   <si>
     <t>BMBF</t>
   </si>
   <si>
-    <t>target$explanation$de</t>
-  </si>
-  <si>
-    <t>target$explanation$en</t>
-  </si>
-  <si>
-    <t>target$value</t>
-  </si>
-  <si>
-    <t>target$breakpoints</t>
-  </si>
-  <si>
-    <t>A) Wertung 1-5,1,2,3,4,5, B) Methode,2,4,6,8,15</t>
-  </si>
-  <si>
-    <t>target$type</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>target$target_reference</t>
-  </si>
-  <si>
-    <t>target$target</t>
+    <t>target$other_relevant_SDGs</t>
   </si>
   <si>
     <t>scoring</t>
   </si>
   <si>
-    <t>scoring$maintainer</t>
-  </si>
-  <si>
-    <t>tbd</t>
-  </si>
-  <si>
     <t>scoring$timestamp</t>
   </si>
   <si>
+    <t>scoring$type</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
     <t>scoring$timestamp_data_host</t>
   </si>
   <si>
-    <t>scoring$type</t>
+    <t>source</t>
+  </si>
+  <si>
+    <t>source$type</t>
+  </si>
+  <si>
+    <t>inofficial</t>
+  </si>
+  <si>
+    <t>source$note</t>
   </si>
   <si>
     <t>global</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>source$note</t>
-  </si>
-  <si>
     <t>source$publisher</t>
   </si>
   <si>
@@ -175,10 +175,13 @@
     <t>OKF</t>
   </si>
   <si>
-    <t>source$type</t>
-  </si>
-  <si>
-    <t>inofficial</t>
+    <t>source$maintainer</t>
+  </si>
+  <si>
+    <t>source$license</t>
+  </si>
+  <si>
+    <t>You are allowed to share, copy, extract from, and distribute PISA Products and parts thereof to third parties for noncommercial purposes. You may integrate PISA Products, or parts thereof, without modification, in your own materials</t>
   </si>
   <si>
     <t>countries</t>
@@ -266,48 +269,109 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
     <font/>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFEEEEEE"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
   </cellXfs>
@@ -328,500 +392,496 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="43.57"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B4" s="2">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
-        <v>4.0</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
+      <c r="A13" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
+      <c r="A14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>22</v>
+      <c r="A15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
+      <c r="A17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
+      <c r="A18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>29</v>
+      <c r="A19" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>30</v>
+      <c r="A20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.0</v>
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>36</v>
+      <c r="A24" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>37</v>
+      <c r="A25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="9">
+        <v>42694.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>38</v>
+      <c r="A26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2014.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="10"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="2">
-        <v>42315.0</v>
+      <c r="A29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2014.0</v>
+      <c r="A30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>45</v>
+      <c r="A31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>46</v>
+      <c r="A32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>47</v>
+      <c r="A33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>49</v>
+      <c r="A34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>51</v>
+      <c r="A35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="A36" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="B37" s="2">
+        <v>2012.0</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>56</v>
+      <c r="A38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="12">
+        <v>6.42</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="1">
-        <v>2014.0</v>
-      </c>
-      <c r="C39" s="1">
-        <v>2011.0</v>
-      </c>
-      <c r="D39" s="1">
-        <v>2012.0</v>
-      </c>
-      <c r="E39" s="1">
-        <v>2013.0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>2015.0</v>
-      </c>
-      <c r="G39" s="1">
-        <v>2016.0</v>
-      </c>
-      <c r="H39" s="1">
-        <v>2017.0</v>
+      <c r="A39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="12">
+        <v>6.3</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="1">
-        <v>6.42</v>
+      <c r="A40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="12">
+        <v>11.52</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="1">
-        <v>6.3</v>
+      <c r="A41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="12">
+        <v>3.75</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="1">
-        <v>11.52</v>
+      <c r="A42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="12">
+        <v>6.76</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="1">
-        <v>3.75</v>
+      <c r="A43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="12">
+        <v>5.99</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="1">
-        <v>6.76</v>
+      <c r="A44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="12">
+        <v>1.76</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="1">
-        <v>5.99</v>
+      <c r="A45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="12">
+        <v>2.47</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="1">
-        <v>1.76</v>
+      <c r="A46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="12">
+        <v>10.9</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="1">
-        <v>2.47</v>
+      <c r="A47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="12">
+        <v>5.61</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="1">
-        <v>10.9</v>
+      <c r="A48" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="12">
+        <v>4.06</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="1">
-        <v>5.61</v>
+      <c r="A49" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="12">
+        <v>8.47</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="1">
-        <v>4.06</v>
+      <c r="A50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="12">
+        <v>5.89</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="1">
-        <v>8.47</v>
+      <c r="A51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="12">
+        <v>2.98</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52" s="1">
-        <v>5.89</v>
+      <c r="A52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="12">
+        <v>5.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="1">
-        <v>2.98</v>
+      <c r="A53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="12">
+        <v>3.56</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="1">
-        <v>5.0</v>
+      <c r="A54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="12">
+        <v>5.82</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B55" s="1">
-        <v>3.56</v>
+      <c r="A55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="12">
+        <v>4.17</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="1">
-        <v>5.82</v>
+      <c r="A56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="12">
+        <v>4.77</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" s="1">
-        <v>4.17</v>
+      <c r="A57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="12">
+        <v>5.18</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58" s="1">
-        <v>4.77</v>
+      <c r="A58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="12">
+        <v>6.33</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59" s="1">
-        <v>5.18</v>
+      <c r="A59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="12">
+        <v>13.39</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="1">
-        <v>6.33</v>
+      <c r="A60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="12">
+        <v>5.62</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61" s="1">
-        <v>13.39</v>
+      <c r="A61" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" s="12">
+        <v>3.92</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="1">
-        <v>5.62</v>
+      <c r="A62" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" s="12">
+        <v>3.45</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" s="1">
-        <v>3.92</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64" s="1">
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B65" s="1">
+      <c r="A63" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" s="12">
         <v>4.75</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B35"/>
+    <hyperlink r:id="rId1" ref="B32"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/datastatic/datasets/online/D_PISA_Socio_Economic_Factors_on_Education_Results_2014.xlsx
+++ b/datastatic/datasets/online/D_PISA_Socio_Economic_Factors_on_Education_Results_2014.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="D_PISA_Socio_Economic_Factors_on_Education_Results_2014.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="D_PISA_Socio_Economic_Factors_o" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>

--- a/datastatic/datasets/online/D_PISA_Socio_Economic_Factors_on_Education_Results_2014.xlsx
+++ b/datastatic/datasets/online/D_PISA_Socio_Economic_Factors_on_Education_Results_2014.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="D_PISA_Socio_Economic_Factors_on_Education_Results_2014.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="D_PISA_Socio_Economic_Factors_o" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -668,12 +668,8 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="2">
-        <v>2016.0</v>
-      </c>
-      <c r="H37" s="2">
-        <v>2017.0</v>
-      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
